--- a/medicine/Psychotrope/Demiard/Demiard.xlsx
+++ b/medicine/Psychotrope/Demiard/Demiard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le demiard est une mesure de capacité pour les liquides, dont le nom vient du Moyen Âge français.
 </t>
@@ -511,9 +523,11 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, il correspondait à 12 pouces du roi cube, soit environ 238,036 ml. Dans le Littré, il est défini comme le quart de litre en Normandie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, il correspondait à 12 pouces du roi cube, soit environ 238,036 ml. Dans le Littré, il est défini comme le quart de litre en Normandie.
 Puisque sa capacité correspond approximativement au verre de 25 cl, on continue, en France jusqu'à nos jours, de commander un « demi » de bière dans les bistrots[pertinence contestée]. 
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Au Canada</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le demiard est une mesure de capacité pour les liquides anciennement employée au Canada, contenant le quart d'une pinte canadienne, soit 0,284 130 625 litre ; parmi les mesures courantes au Canada, c'est plutôt la tasse américaine (236 ml) et la tasse impériale (227 ml) qui ressemblent au demiard français.
 Un demiard vaut aussi la moitié d'une chopine canadienne, ou cinq-quarts d'une tasse impériale.
